--- a/LampGame/LampGame/stagedata/Stage6.xlsx
+++ b/LampGame/LampGame/stagedata/Stage6.xlsx
@@ -50,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,17 +73,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BW22" sqref="BU21:BW22"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BI7" sqref="BI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -641,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="AG1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP1" s="1">
         <v>0</v>
@@ -946,10 +960,10 @@
         <v>0</v>
       </c>
       <c r="AH2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2" s="1">
         <v>0</v>
@@ -961,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="1">
         <v>0</v>
@@ -1030,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL2" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM2" s="1">
         <v>0</v>
@@ -1332,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK3" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BL3" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM3" s="1">
         <v>0</v>
@@ -1355,7 +1369,7 @@
       <c r="BQ3" s="1">
         <v>0</v>
       </c>
-      <c r="BR3" s="1">
+      <c r="BR3" s="2">
         <v>0</v>
       </c>
       <c r="BS3" s="1">
@@ -1385,8 +1399,8 @@
       <c r="CA3" s="1">
         <v>0</v>
       </c>
-      <c r="CB3" s="1">
-        <v>8</v>
+      <c r="CB3" s="2">
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>0</v>
@@ -1407,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="CI3" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="1">
         <v>0</v>
@@ -1553,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ4" s="1">
         <v>0</v>
@@ -1565,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="AM4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN4" s="1">
         <v>0</v>
@@ -1634,13 +1648,13 @@
         <v>0</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BK4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BL4" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BM4" s="1">
         <v>0</v>
@@ -1673,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="BW4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX4" s="1">
         <v>0</v>
       </c>
       <c r="BY4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ4" s="1">
         <v>0</v>
@@ -1694,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="CD4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CE4" s="1">
         <v>0</v>
@@ -1706,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="CH4" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI4" s="1">
         <v>0</v>
@@ -1894,25 +1908,25 @@
         <v>1</v>
       </c>
       <c r="AV5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB5" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BC5" s="1">
         <v>1</v>
@@ -1942,43 +1956,43 @@
         <v>1</v>
       </c>
       <c r="BL5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BX5" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY5" s="1">
         <v>1</v>
@@ -2005,7 +2019,7 @@
         <v>1</v>
       </c>
       <c r="CG5" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CH5" s="1">
         <v>0</v>
@@ -2163,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AK6" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL6" s="1">
         <v>0</v>
@@ -2217,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="BC6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>0</v>
@@ -2259,28 +2273,28 @@
         <v>0</v>
       </c>
       <c r="BQ6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BS6" s="1">
         <v>5</v>
       </c>
       <c r="BT6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BW6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY6" s="1">
         <v>0</v>
@@ -2307,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="CG6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH6" s="1">
         <v>0</v>
@@ -2465,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="AK7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7" s="1">
         <v>0</v>
@@ -2519,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="BC7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>0</v>
@@ -2570,7 +2584,7 @@
         <v>5</v>
       </c>
       <c r="BT7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU7" s="1">
         <v>0</v>
@@ -2609,25 +2623,25 @@
         <v>0</v>
       </c>
       <c r="CG7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CJ7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM7" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CN7" s="1">
         <v>0</v>
@@ -2790,7 +2804,7 @@
       <c r="AR8" s="1">
         <v>0</v>
       </c>
-      <c r="AS8" s="1">
+      <c r="AS8" s="2">
         <v>0</v>
       </c>
       <c r="AT8" s="1">
@@ -2821,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="BC8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>0</v>
@@ -2857,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="BO8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BP8" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BQ8" s="1">
         <v>5</v>
@@ -2869,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="BS8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BT8" s="1">
         <v>0</v>
@@ -2914,10 +2928,10 @@
         <v>5</v>
       </c>
       <c r="CH8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI8" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ8" s="1">
         <v>0</v>
@@ -3036,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1">
         <v>0</v>
@@ -3054,91 +3068,91 @@
         <v>3</v>
       </c>
       <c r="AF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1">
         <v>6</v>
       </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>5</v>
-      </c>
-      <c r="AZ9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>5</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>0</v>
-      </c>
       <c r="BH9" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>0</v>
@@ -3168,10 +3182,10 @@
         <v>5</v>
       </c>
       <c r="BR9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT9" s="1">
         <v>0</v>
@@ -3180,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="BV9" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BW9" s="1">
         <v>0</v>
@@ -3216,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="CH9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CJ9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK9" s="1">
         <v>0</v>
@@ -3365,19 +3379,19 @@
         <v>1</v>
       </c>
       <c r="AI10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AJ10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AK10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AM10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AN10" s="1">
         <v>1</v>
@@ -3455,28 +3469,28 @@
         <v>5</v>
       </c>
       <c r="BM10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BN10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BO10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BP10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BR10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BS10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BT10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU10" s="1">
         <v>1</v>
@@ -3565,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="BL4:CV6 BL1:CO3 A1:BK2 A10:CV10 BI7:CV9 BI3:BK6 A3:BH9">
+  <conditionalFormatting sqref="A1:CO2 A3:CV10">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3585,7 +3599,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BL2:CV3 BK2:BK9 BJ2:BJ5 BF2:BI2 CN4:CO9 BE1:CV1 BG3:BH4 BI3">
+  <conditionalFormatting sqref="BJ2:BJ5 CN4:CO9 BE1:CV1 BG3:BH4 BL5:BX5 CI7:CM7 BK4:BK9 BL3:BR3 BL3:BL4 BF2:CV2 BI3:BJ3">
     <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>6</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage6.xlsx
+++ b/LampGame/LampGame/stagedata/Stage6.xlsx
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BI7" sqref="BI7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BG17" sqref="B14:BG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1929,13 +1929,13 @@
         <v>5</v>
       </c>
       <c r="BC5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BD5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BE5" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF5" s="1">
         <v>1</v>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="BP6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ6" s="1">
         <v>5</v>
@@ -2279,7 +2279,7 @@
         <v>5</v>
       </c>
       <c r="BS6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT6" s="1">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BQ7" s="1">
         <v>5</v>
@@ -2581,7 +2581,7 @@
         <v>5</v>
       </c>
       <c r="BS7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT7" s="1">
         <v>0</v>
@@ -2868,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO8" s="1">
         <v>1</v>
       </c>
       <c r="BP8" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BQ8" s="1">
         <v>5</v>
@@ -2883,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="BS8" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT8" s="1">
         <v>0</v>
@@ -3149,17 +3149,14 @@
         <v>0</v>
       </c>
       <c r="BG9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="1">
         <v>6</v>
       </c>
-      <c r="BH9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>0</v>
-      </c>
       <c r="BK9" s="1">
         <v>0</v>
       </c>
@@ -3179,13 +3176,13 @@
         <v>5</v>
       </c>
       <c r="BQ9" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BR9" s="1">
         <v>1</v>
       </c>
       <c r="BS9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT9" s="1">
         <v>0</v>
@@ -3487,7 +3484,7 @@
         <v>5</v>
       </c>
       <c r="BS10" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BT10" s="1">
         <v>0</v>
@@ -3579,7 +3576,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CO2 A3:CV10">
+  <conditionalFormatting sqref="A1:CO2 A3:CV8 A10:CV10 A9:BH9 BJ9:CV9">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3630,7 +3627,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV10">
+  <conditionalFormatting sqref="A1:CV8 A10:CV10 A9:BH9 BJ9:CV9">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage6.xlsx
+++ b/LampGame/LampGame/stagedata/Stage6.xlsx
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BG17" sqref="B14:BG17"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CF13" sqref="CF13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3154,6 +3154,9 @@
       <c r="BH9" s="1">
         <v>0</v>
       </c>
+      <c r="BI9" s="2">
+        <v>0</v>
+      </c>
       <c r="BJ9" s="1">
         <v>6</v>
       </c>
@@ -3576,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CO2 A3:CV8 A10:CV10 A9:BH9 BJ9:CV9">
+  <conditionalFormatting sqref="A1:CO2 A3:CV10">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
@@ -3627,7 +3630,7 @@
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:CV8 A10:CV10 A9:BH9 BJ9:CV9">
+  <conditionalFormatting sqref="A1:CV10">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>8</formula>
     </cfRule>

--- a/LampGame/LampGame/stagedata/Stage6.xlsx
+++ b/LampGame/LampGame/stagedata/Stage6.xlsx
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CF13" sqref="CF13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA1:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -637,7 +637,7 @@
         <v>0</v>
       </c>
       <c r="AA1" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB1" s="1">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB3" s="1">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB4" s="1">
         <v>0</v>
@@ -3579,7 +3579,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A1:CO2 A3:CV10">
+  <conditionalFormatting sqref="A1:CO2 A3:CV10 AA1:AA3">
     <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
